--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15.142571053608265</v>
+        <v>15.142571019899322</v>
       </c>
       <c r="C2">
-        <v>19.722430849689118</v>
+        <v>19.722430854246994</v>
       </c>
       <c r="D2">
-        <v>-1.0476145520073032E-2</v>
+        <v>-1.0475979521544332E-2</v>
       </c>
       <c r="E2">
-        <v>23.09342756011776</v>
+        <v>23.093427479150449</v>
       </c>
       <c r="F2">
-        <v>-36.745208444572995</v>
+        <v>-36.745208460702344</v>
       </c>
       <c r="G2">
-        <v>29.608690527094495</v>
+        <v>29.608690500549471</v>
       </c>
       <c r="H2">
-        <v>19.654870995189299</v>
+        <v>19.654870938860171</v>
       </c>
       <c r="I2">
-        <v>24.879623277923201</v>
+        <v>24.879623267431896</v>
       </c>
       <c r="J2">
-        <v>29.042732627246409</v>
+        <v>29.042732600822717</v>
       </c>
       <c r="K2">
-        <v>22.684735979640351</v>
+        <v>22.684735915158967</v>
       </c>
       <c r="L2">
-        <v>35.181505388992662</v>
+        <v>35.18150537492528</v>
       </c>
       <c r="M2">
-        <v>18.232728932443479</v>
+        <v>18.232728890051646</v>
       </c>
       <c r="N2">
-        <v>33.141495799967402</v>
+        <v>33.141495725879622</v>
       </c>
       <c r="O2">
-        <v>24.873465902804014</v>
+        <v>24.873465874317617</v>
       </c>
       <c r="P2">
-        <v>15.288802297052428</v>
+        <v>15.288802311399195</v>
       </c>
       <c r="Q2">
-        <v>29.441180695084313</v>
+        <v>29.441180673758367</v>
       </c>
       <c r="R2">
-        <v>16.490162524238826</v>
+        <v>16.490162510701225</v>
       </c>
       <c r="S2">
-        <v>23.422817455275094</v>
+        <v>23.422817439370192</v>
       </c>
       <c r="T2">
-        <v>26.446059908652501</v>
+        <v>26.446059876686036</v>
       </c>
       <c r="U2">
-        <v>35.923218845323646</v>
+        <v>35.923218800070515</v>
       </c>
       <c r="V2">
-        <v>20.576298214284748</v>
+        <v>20.576298162118974</v>
       </c>
       <c r="W2">
-        <v>23.65969934924891</v>
+        <v>23.659699323058476</v>
       </c>
       <c r="X2">
-        <v>29.573430599667319</v>
+        <v>29.573430600239789</v>
       </c>
       <c r="Y2">
-        <v>25.586544615718765</v>
+        <v>25.586544596038465</v>
       </c>
       <c r="Z2">
-        <v>-1.2874012376292967</v>
+        <v>-1.2874012619664938</v>
       </c>
       <c r="AA2">
-        <v>44.019917171573837</v>
+        <v>44.019917155165643</v>
       </c>
       <c r="AB2">
-        <v>24.634769268585046</v>
+        <v>24.634769263074361</v>
       </c>
       <c r="AC2">
-        <v>25.013322321814314</v>
+        <v>25.013322286607831</v>
       </c>
       <c r="AD2">
-        <v>20.641166793207844</v>
+        <v>20.641166773590271</v>
       </c>
       <c r="AE2">
-        <v>-0.87970977365642966</v>
+        <v>-0.87970972421248916</v>
       </c>
       <c r="AF2">
-        <v>23.483148830206659</v>
+        <v>23.483148830146177</v>
       </c>
       <c r="AG2">
-        <v>27.282312570609662</v>
+        <v>27.282312512353968</v>
       </c>
       <c r="AH2">
-        <v>20.172199897904704</v>
+        <v>20.172199879599191</v>
       </c>
       <c r="AI2">
-        <v>40.070818624140031</v>
+        <v>40.070818600716308</v>
       </c>
       <c r="AJ2">
-        <v>19.270481134123145</v>
+        <v>19.27048108764734</v>
       </c>
       <c r="AK2">
-        <v>28.143975732721032</v>
+        <v>28.143975705836652</v>
       </c>
       <c r="AL2">
-        <v>31.199945210991586</v>
+        <v>31.199945224845749</v>
       </c>
       <c r="AM2">
-        <v>27.229211238335267</v>
+        <v>27.229211181178243</v>
       </c>
       <c r="AN2">
-        <v>24.797026852653801</v>
+        <v>24.797026792536599</v>
       </c>
       <c r="AO2">
-        <v>25.811138098670881</v>
+        <v>25.811138105845828</v>
       </c>
       <c r="AP2">
-        <v>27.036703210824669</v>
+        <v>27.036703194999006</v>
       </c>
       <c r="AQ2">
-        <v>25.250428705081561</v>
+        <v>25.250428671324585</v>
       </c>
       <c r="AR2">
-        <v>27.293091271124183</v>
+        <v>27.293091273729942</v>
       </c>
       <c r="AS2">
-        <v>32.099811038892142</v>
+        <v>32.099811046943444</v>
       </c>
       <c r="AT2">
-        <v>26.975629755808853</v>
+        <v>26.975629730648876</v>
       </c>
       <c r="AU2">
-        <v>25.162487535461196</v>
+        <v>25.162487513216092</v>
       </c>
       <c r="AV2">
-        <v>17.41964405038226</v>
+        <v>17.419644037156786</v>
       </c>
       <c r="AW2">
-        <v>24.916956570241211</v>
+        <v>24.916956558482241</v>
       </c>
       <c r="AX2">
-        <v>28.529296287292283</v>
+        <v>28.529296361077769</v>
       </c>
       <c r="AY2">
-        <v>30.498514879807374</v>
+        <v>30.498514876009068</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.747567597426098</v>
+        <v>21.747567613790068</v>
       </c>
       <c r="C3">
-        <v>25.351148923295852</v>
+        <v>25.35114893691906</v>
       </c>
       <c r="D3">
-        <v>30.954417356737423</v>
+        <v>30.954417340656079</v>
       </c>
       <c r="E3">
-        <v>18.581280493033944</v>
+        <v>18.581280483695309</v>
       </c>
       <c r="F3">
-        <v>11.442114732519087</v>
+        <v>11.442114680281065</v>
       </c>
       <c r="G3">
-        <v>26.169967077284355</v>
+        <v>26.169967054955578</v>
       </c>
       <c r="H3">
-        <v>27.392674884097858</v>
+        <v>27.392674845866196</v>
       </c>
       <c r="I3">
-        <v>24.925893850770706</v>
+        <v>24.925893836467878</v>
       </c>
       <c r="J3">
-        <v>29.000904132514876</v>
+        <v>29.000904125936728</v>
       </c>
       <c r="K3">
-        <v>29.479907464050456</v>
+        <v>29.479907428303648</v>
       </c>
       <c r="L3">
-        <v>57.678786682398254</v>
+        <v>57.678786636739972</v>
       </c>
       <c r="M3">
-        <v>19.105238615438395</v>
+        <v>19.105068485823153</v>
       </c>
       <c r="N3">
-        <v>26.714557400052968</v>
+        <v>26.714557361211519</v>
       </c>
       <c r="O3">
-        <v>14.383597393926067</v>
+        <v>14.383597367489955</v>
       </c>
       <c r="P3">
-        <v>28.071519590647313</v>
+        <v>28.07151958811636</v>
       </c>
       <c r="Q3">
-        <v>18.087040809465918</v>
+        <v>18.08704077098821</v>
       </c>
       <c r="R3">
-        <v>22.605220352040078</v>
+        <v>22.605220323623371</v>
       </c>
       <c r="S3">
-        <v>20.737069398283325</v>
+        <v>20.737069382286563</v>
       </c>
       <c r="T3">
-        <v>24.727865241474206</v>
+        <v>24.727865196945686</v>
       </c>
       <c r="U3">
-        <v>20.317686597179033</v>
+        <v>20.317686569691745</v>
       </c>
       <c r="V3">
-        <v>40.28276937801752</v>
+        <v>40.282769358584744</v>
       </c>
       <c r="W3">
-        <v>23.26252484791155</v>
+        <v>23.262524767113121</v>
       </c>
       <c r="X3">
-        <v>20.713107869975545</v>
+        <v>20.713107811655391</v>
       </c>
       <c r="Y3">
-        <v>18.553121992439713</v>
+        <v>18.5531219748691</v>
       </c>
       <c r="Z3">
-        <v>17.788626314551237</v>
+        <v>17.788626311108857</v>
       </c>
       <c r="AA3">
-        <v>37.986336745948336</v>
+        <v>37.986336743319555</v>
       </c>
       <c r="AB3">
-        <v>23.414231755494399</v>
+        <v>23.414231750607343</v>
       </c>
       <c r="AC3">
-        <v>34.423862760162933</v>
+        <v>34.423862717626321</v>
       </c>
       <c r="AD3">
-        <v>27.725016166771866</v>
+        <v>27.72501606111166</v>
       </c>
       <c r="AE3">
-        <v>24.300948048768447</v>
+        <v>24.300948019534331</v>
       </c>
       <c r="AF3">
-        <v>29.797021940283713</v>
+        <v>29.797021933399009</v>
       </c>
       <c r="AG3">
-        <v>35.117804530455544</v>
+        <v>35.117804262020655</v>
       </c>
       <c r="AH3">
-        <v>35.06893082926922</v>
+        <v>35.068930864934941</v>
       </c>
       <c r="AI3">
-        <v>31.470583637244147</v>
+        <v>31.470583550780646</v>
       </c>
       <c r="AJ3">
-        <v>40.172379721816753</v>
+        <v>40.172379713680698</v>
       </c>
       <c r="AK3">
-        <v>55.501619671190895</v>
+        <v>55.501619659688203</v>
       </c>
       <c r="AL3">
-        <v>33.20872391538677</v>
+        <v>33.20872389558707</v>
       </c>
       <c r="AM3">
-        <v>25.166277904208641</v>
+        <v>25.166277870453996</v>
       </c>
       <c r="AN3">
-        <v>17.107672656080183</v>
+        <v>17.107672613601665</v>
       </c>
       <c r="AO3">
-        <v>32.751790846332028</v>
+        <v>32.751790828441017</v>
       </c>
       <c r="AP3">
-        <v>24.732743739881982</v>
+        <v>24.732743708644023</v>
       </c>
       <c r="AQ3">
-        <v>24.750743501600596</v>
+        <v>24.750743503705451</v>
       </c>
       <c r="AR3">
-        <v>29.995316148032657</v>
+        <v>29.995316145985726</v>
       </c>
       <c r="AS3">
-        <v>25.552645852991816</v>
+        <v>25.552645821720091</v>
       </c>
       <c r="AT3">
-        <v>18.837497226445606</v>
+        <v>18.83749723801688</v>
       </c>
       <c r="AU3">
-        <v>32.702983659205358</v>
+        <v>32.702983627531978</v>
       </c>
       <c r="AV3">
-        <v>31.951831049829622</v>
+        <v>31.951831005324692</v>
       </c>
       <c r="AW3">
-        <v>27.888893257484256</v>
+        <v>27.888893178858154</v>
       </c>
       <c r="AX3">
-        <v>25.122803129788394</v>
+        <v>25.122803088688642</v>
       </c>
       <c r="AY3">
-        <v>23.486931923506518</v>
+        <v>23.486931897634292</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>15.142571019899322</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>19.722430854246994</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-1.0475979521544332E-2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>23.093427479150449</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-36.745208460702344</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>29.608690500549471</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>19.654870938860171</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>24.879623267431896</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>29.042732600822717</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>22.684735915158967</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>35.18150537492528</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>18.232728890051646</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>33.141495725879622</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>24.873465874317617</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>15.288802311399195</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>29.441180673758367</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>16.490162510701225</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>23.422817439370192</v>
+        <v>23.4228507693702</v>
       </c>
       <c r="T2">
         <v>26.446059876686036</v>
@@ -576,147 +465,144 @@
         <v>20.576298162118974</v>
       </c>
       <c r="W2">
-        <v>23.659699323058476</v>
+        <v>23.659732653058484</v>
       </c>
       <c r="X2">
-        <v>29.573430600239789</v>
+        <v>29.573397270239781</v>
       </c>
       <c r="Y2">
         <v>25.586544596038465</v>
       </c>
       <c r="Z2">
-        <v>-1.2874012619664938</v>
+        <v>-1.2874345919665018</v>
       </c>
       <c r="AA2">
-        <v>44.019917155165643</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>24.634769263074361</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>25.013322286607831</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>20.641166773590271</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-0.87970972421248916</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>23.483148830146177</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>27.282312512353968</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>20.172199879599191</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>40.070818600716308</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>19.27048108764734</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>28.143975705836652</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>31.199945224845749</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>27.229211181178243</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>24.797026792536599</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>25.811138105845828</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>27.036703194999006</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>25.250428671324585</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>27.293091273729942</v>
+        <v>27.293057943729934</v>
       </c>
       <c r="AS2">
         <v>32.099811046943444</v>
       </c>
       <c r="AT2">
-        <v>26.975629730648876</v>
+        <v>26.975663060648884</v>
       </c>
       <c r="AU2">
-        <v>25.162487513216092</v>
+        <v>25.162454183216084</v>
       </c>
       <c r="AV2">
-        <v>17.419644037156786</v>
+        <v>17.419677367156794</v>
       </c>
       <c r="AW2">
-        <v>24.916956558482241</v>
+        <v>24.916923228482233</v>
       </c>
       <c r="AX2">
-        <v>28.529296361077769</v>
+        <v>28.529263031077761</v>
       </c>
       <c r="AY2">
-        <v>30.498514876009068</v>
+        <v>30.49848154600906</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>21.747567613790068</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>25.35114893691906</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>30.954417340656079</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>18.581280483695309</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>11.442114680281065</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>26.169967054955578</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>27.392674845866196</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>24.925893836467878</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>29.000904125936728</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>29.479907428303648</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>57.678786636739972</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>19.105068485823153</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>26.714557361211519</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.383597367489955</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>28.07151958811636</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>18.08704077098821</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>22.605220323623371</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>20.737069382286563</v>
@@ -728,94 +614,94 @@
         <v>20.317686569691745</v>
       </c>
       <c r="V3">
-        <v>40.282769358584744</v>
+        <v>40.282736028584736</v>
       </c>
       <c r="W3">
-        <v>23.262524767113121</v>
+        <v>23.262491437113141</v>
       </c>
       <c r="X3">
-        <v>20.713107811655391</v>
+        <v>20.713141141655399</v>
       </c>
       <c r="Y3">
-        <v>18.5531219748691</v>
+        <v>44.583155304869109</v>
       </c>
       <c r="Z3">
-        <v>17.788626311108857</v>
+        <v>23.231992981108874</v>
       </c>
       <c r="AA3">
-        <v>37.986336743319555</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>23.414231750607343</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>34.423862717626321</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>27.72501606111166</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>24.300948019534331</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>29.797021933399009</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>35.117804262020655</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>35.068930864934941</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>31.470583550780646</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>40.172379713680698</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>55.501619659688203</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>33.20872389558707</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>25.166277870453996</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>17.107672613601665</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>32.751790828441017</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>24.732743708644023</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>24.750743503705451</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>29.995316145985726</v>
+        <v>29.995349475985677</v>
       </c>
       <c r="AS3">
-        <v>25.552645821720091</v>
+        <v>25.552612491720083</v>
       </c>
       <c r="AT3">
         <v>18.83749723801688</v>
       </c>
       <c r="AU3">
-        <v>32.702983627531978</v>
+        <v>32.70295029753197</v>
       </c>
       <c r="AV3">
-        <v>31.951831005324692</v>
+        <v>31.951797675324684</v>
       </c>
       <c r="AW3">
         <v>27.888893178858154</v>
       </c>
       <c r="AX3">
-        <v>25.122803088688642</v>
+        <v>29.296103088688653</v>
       </c>
       <c r="AY3">
-        <v>23.486931897634292</v>
+        <v>65.9068985676343</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15.142604383608273</v>
+        <v>24.873432544317609</v>
       </c>
       <c r="C2">
-        <v>26.029097519689117</v>
+        <v>16.490162510701225</v>
       </c>
       <c r="D2">
-        <v>-1.0509475520080969E-2</v>
+        <v>24.797060122536578</v>
       </c>
       <c r="E2">
-        <v>23.093460890117768</v>
+        <v>25.250462001324593</v>
       </c>
       <c r="F2">
         <v>-36.745208444572995</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.747567597426098</v>
+        <v>14.383597367489955</v>
       </c>
       <c r="C3">
-        <v>33.237848923295871</v>
+        <v>22.605253653623379</v>
       </c>
       <c r="D3">
-        <v>30.954450686737431</v>
+        <v>17.107705943601673</v>
       </c>
       <c r="E3">
-        <v>18.581247163033964</v>
+        <v>24.66254717183233</v>
       </c>
       <c r="F3">
         <v>11.442114732519087</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15.142604383608273</v>
+        <v>13.754862395879627</v>
       </c>
       <c r="C2">
-        <v>26.029097519689117</v>
+        <v>24.873432544317609</v>
       </c>
       <c r="D2">
-        <v>-1.0509475520080969E-2</v>
+        <v>31.449211181178271</v>
       </c>
       <c r="E2">
-        <v>23.093460890117768</v>
+        <v>24.797060122536578</v>
       </c>
       <c r="F2">
         <v>-36.745208444572995</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.747567597426098</v>
+        <v>10.911190691211516</v>
       </c>
       <c r="C3">
-        <v>33.237848923295871</v>
+        <v>14.383597367489955</v>
       </c>
       <c r="D3">
-        <v>30.954450686737431</v>
+        <v>42.27627787045401</v>
       </c>
       <c r="E3">
-        <v>18.581247163033964</v>
+        <v>17.107705943601673</v>
       </c>
       <c r="F3">
         <v>11.442114732519087</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>15.142604349899329</v>
+      </c>
+      <c r="C2">
+        <v>26.029097524246993</v>
+      </c>
+      <c r="D2">
+        <v>-1.0509309521552268E-2</v>
+      </c>
+      <c r="E2">
+        <v>23.093460809150457</v>
+      </c>
+      <c r="F2">
+        <v>-36.745208460702344</v>
+      </c>
+      <c r="G2">
+        <v>29.608723830549479</v>
+      </c>
+      <c r="H2">
+        <v>19.654870938860171</v>
+      </c>
+      <c r="I2">
+        <v>24.879589937431888</v>
+      </c>
+      <c r="J2">
+        <v>29.042765930822725</v>
+      </c>
+      <c r="K2">
+        <v>43.728069245158963</v>
+      </c>
+      <c r="L2">
+        <v>35.181538704925288</v>
+      </c>
+      <c r="M2">
+        <v>18.232728890051646</v>
+      </c>
+      <c r="N2">
         <v>13.754862395879627</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>24.873432544317609</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>15.288802311399195</v>
+      </c>
+      <c r="Q2">
+        <v>54.784547343758391</v>
+      </c>
+      <c r="R2">
+        <v>16.490162510701225</v>
+      </c>
+      <c r="S2">
+        <v>23.4228507693702</v>
+      </c>
+      <c r="T2">
+        <v>26.446059876686036</v>
+      </c>
+      <c r="U2">
+        <v>35.923218800070515</v>
+      </c>
+      <c r="V2">
+        <v>20.576298162118974</v>
+      </c>
+      <c r="W2">
+        <v>23.659732653058484</v>
+      </c>
+      <c r="X2">
+        <v>29.573397270239781</v>
+      </c>
+      <c r="Y2">
+        <v>25.586544596038465</v>
+      </c>
+      <c r="Z2">
+        <v>-1.2874345919665018</v>
+      </c>
+      <c r="AA2">
+        <v>44.019950485165623</v>
+      </c>
+      <c r="AB2">
+        <v>15.174735933074373</v>
+      </c>
+      <c r="AC2">
+        <v>25.013288956607823</v>
+      </c>
+      <c r="AD2">
+        <v>20.641133443590292</v>
+      </c>
+      <c r="AE2">
+        <v>-0.87970972421248916</v>
+      </c>
+      <c r="AF2">
+        <v>23.483115500146198</v>
+      </c>
+      <c r="AG2">
+        <v>27.282345842353976</v>
+      </c>
+      <c r="AH2">
+        <v>20.172166549599183</v>
+      </c>
+      <c r="AI2">
+        <v>40.070818600716308</v>
+      </c>
+      <c r="AJ2">
+        <v>21.060447757647353</v>
+      </c>
+      <c r="AK2">
+        <v>28.143975705836652</v>
+      </c>
+      <c r="AL2">
+        <v>31.199911894845741</v>
+      </c>
+      <c r="AM2">
         <v>31.449211181178271</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>24.797060122536578</v>
       </c>
-      <c r="F2">
-        <v>-36.745208444572995</v>
-      </c>
-      <c r="G2">
-        <v>29.608723857094503</v>
-      </c>
-      <c r="H2">
-        <v>19.654870995189299</v>
-      </c>
-      <c r="I2">
-        <v>24.879589947923193</v>
-      </c>
-      <c r="J2">
-        <v>29.042765957246417</v>
-      </c>
-      <c r="K2">
-        <v>43.728069309640347</v>
-      </c>
-      <c r="L2">
-        <v>35.18153871899267</v>
-      </c>
-      <c r="M2">
-        <v>18.232728932443479</v>
-      </c>
-      <c r="N2">
-        <v>13.754862469967406</v>
-      </c>
-      <c r="O2">
-        <v>24.873432572804006</v>
-      </c>
-      <c r="P2">
-        <v>15.288802297052428</v>
-      </c>
-      <c r="Q2">
-        <v>54.784547365084336</v>
-      </c>
-      <c r="R2">
-        <v>16.490162524238826</v>
-      </c>
-      <c r="S2">
-        <v>23.422850785275102</v>
-      </c>
-      <c r="T2">
-        <v>26.446059908652501</v>
-      </c>
-      <c r="U2">
-        <v>35.923218845323646</v>
-      </c>
-      <c r="V2">
-        <v>20.576298214284748</v>
-      </c>
-      <c r="W2">
-        <v>23.659732679248918</v>
-      </c>
-      <c r="X2">
-        <v>29.573397269667311</v>
-      </c>
-      <c r="Y2">
-        <v>25.586544615718765</v>
-      </c>
-      <c r="Z2">
-        <v>-1.2874345676293046</v>
-      </c>
-      <c r="AA2">
-        <v>44.019950501573817</v>
-      </c>
-      <c r="AB2">
-        <v>15.174735938585059</v>
-      </c>
-      <c r="AC2">
-        <v>25.013288991814306</v>
-      </c>
-      <c r="AD2">
-        <v>20.641133463207865</v>
-      </c>
-      <c r="AE2">
-        <v>-0.87970977365642966</v>
-      </c>
-      <c r="AF2">
-        <v>23.483115500206679</v>
-      </c>
-      <c r="AG2">
-        <v>27.28234590060967</v>
-      </c>
-      <c r="AH2">
-        <v>20.172166567904696</v>
-      </c>
-      <c r="AI2">
-        <v>40.070818624140031</v>
-      </c>
-      <c r="AJ2">
-        <v>21.060447804123157</v>
-      </c>
-      <c r="AK2">
-        <v>28.143975732721032</v>
-      </c>
-      <c r="AL2">
-        <v>31.199911880991579</v>
-      </c>
-      <c r="AM2">
-        <v>31.449211238335295</v>
-      </c>
-      <c r="AN2">
-        <v>24.79706018265378</v>
-      </c>
       <c r="AO2">
-        <v>25.811104768670873</v>
+        <v>25.81110477584582</v>
       </c>
       <c r="AP2">
-        <v>27.036703210824669</v>
+        <v>27.036703194999006</v>
       </c>
       <c r="AQ2">
-        <v>25.250462035081569</v>
+        <v>25.250462001324593</v>
       </c>
       <c r="AR2">
-        <v>27.293057941124175</v>
+        <v>27.293057943729934</v>
       </c>
       <c r="AS2">
-        <v>32.099811038892142</v>
+        <v>32.099811046943444</v>
       </c>
       <c r="AT2">
-        <v>26.975663085808861</v>
+        <v>26.975663060648884</v>
       </c>
       <c r="AU2">
-        <v>25.162454205461188</v>
+        <v>25.162454183216084</v>
       </c>
       <c r="AV2">
-        <v>17.419677380382268</v>
+        <v>17.419677367156794</v>
       </c>
       <c r="AW2">
-        <v>24.916923240241204</v>
+        <v>24.916923228482233</v>
       </c>
       <c r="AX2">
-        <v>28.529262957292275</v>
+        <v>28.529263031077761</v>
       </c>
       <c r="AY2">
-        <v>30.498481549807366</v>
+        <v>30.49848154600906</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>21.747567613790068</v>
+      </c>
+      <c r="C3">
+        <v>33.237848936919079</v>
+      </c>
+      <c r="D3">
+        <v>30.954450670656087</v>
+      </c>
+      <c r="E3">
+        <v>18.58124715369533</v>
+      </c>
+      <c r="F3">
+        <v>11.442114680281065</v>
+      </c>
+      <c r="G3">
+        <v>26.169933724955598</v>
+      </c>
+      <c r="H3">
+        <v>27.392641515866217</v>
+      </c>
+      <c r="I3">
+        <v>24.92586050646787</v>
+      </c>
+      <c r="J3">
+        <v>41.760904125936747</v>
+      </c>
+      <c r="K3">
+        <v>29.479907428303648</v>
+      </c>
+      <c r="L3">
+        <v>57.678786636739972</v>
+      </c>
+      <c r="M3">
+        <v>19.105101815823161</v>
+      </c>
+      <c r="N3">
         <v>10.911190691211516</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>14.383597367489955</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>28.07151958811636</v>
+      </c>
+      <c r="Q3">
+        <v>18.087007440988202</v>
+      </c>
+      <c r="R3">
+        <v>22.605253653623379</v>
+      </c>
+      <c r="S3">
+        <v>20.737069382286563</v>
+      </c>
+      <c r="T3">
+        <v>24.727865196945686</v>
+      </c>
+      <c r="U3">
+        <v>20.317686569691745</v>
+      </c>
+      <c r="V3">
+        <v>40.282736028584736</v>
+      </c>
+      <c r="W3">
+        <v>23.301159798859004</v>
+      </c>
+      <c r="X3">
+        <v>20.713141141655399</v>
+      </c>
+      <c r="Y3">
+        <v>44.583155304869109</v>
+      </c>
+      <c r="Z3">
+        <v>23.231992981108874</v>
+      </c>
+      <c r="AA3">
+        <v>37.986303413319547</v>
+      </c>
+      <c r="AB3">
+        <v>23.884198420607333</v>
+      </c>
+      <c r="AC3">
+        <v>34.423896047626329</v>
+      </c>
+      <c r="AD3">
+        <v>27.724982731111652</v>
+      </c>
+      <c r="AE3">
+        <v>24.300914689534324</v>
+      </c>
+      <c r="AF3">
+        <v>29.797021933399009</v>
+      </c>
+      <c r="AG3">
+        <v>35.117804262020655</v>
+      </c>
+      <c r="AH3">
+        <v>35.27993232606724</v>
+      </c>
+      <c r="AI3">
+        <v>34.410550220780635</v>
+      </c>
+      <c r="AJ3">
+        <v>40.172379713680698</v>
+      </c>
+      <c r="AK3">
+        <v>55.50165298968821</v>
+      </c>
+      <c r="AL3">
+        <v>33.20872389558707</v>
+      </c>
+      <c r="AM3">
         <v>42.27627787045401</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>17.107705943601673</v>
       </c>
-      <c r="F3">
-        <v>11.442114732519087</v>
-      </c>
-      <c r="G3">
-        <v>26.169933747284375</v>
-      </c>
-      <c r="H3">
-        <v>27.392641554097878</v>
-      </c>
-      <c r="I3">
-        <v>24.925860520770698</v>
-      </c>
-      <c r="J3">
-        <v>41.760904132514895</v>
-      </c>
-      <c r="K3">
-        <v>29.479907464050456</v>
-      </c>
-      <c r="L3">
-        <v>57.678786682398254</v>
-      </c>
-      <c r="M3">
-        <v>19.105271945438403</v>
-      </c>
-      <c r="N3">
-        <v>10.911190730052965</v>
-      </c>
-      <c r="O3">
-        <v>14.383597393926067</v>
-      </c>
-      <c r="P3">
-        <v>28.071519590647313</v>
-      </c>
-      <c r="Q3">
-        <v>18.08700747946591</v>
-      </c>
-      <c r="R3">
-        <v>22.605253682040086</v>
-      </c>
-      <c r="S3">
-        <v>20.737069398283325</v>
-      </c>
-      <c r="T3">
-        <v>24.727865241474206</v>
-      </c>
-      <c r="U3">
-        <v>20.317686597179033</v>
-      </c>
-      <c r="V3">
-        <v>40.282736048017512</v>
-      </c>
-      <c r="W3">
-        <v>23.301159864759853</v>
-      </c>
-      <c r="X3">
-        <v>20.713141199975553</v>
-      </c>
-      <c r="Y3">
-        <v>44.583155322439723</v>
-      </c>
-      <c r="Z3">
-        <v>23.231992984551255</v>
-      </c>
-      <c r="AA3">
-        <v>37.986303415948328</v>
-      </c>
-      <c r="AB3">
-        <v>23.88419842549439</v>
-      </c>
-      <c r="AC3">
-        <v>34.423896090162941</v>
-      </c>
-      <c r="AD3">
-        <v>27.724982836771858</v>
-      </c>
-      <c r="AE3">
-        <v>24.300914718768439</v>
-      </c>
-      <c r="AF3">
-        <v>29.797021940283713</v>
-      </c>
-      <c r="AG3">
-        <v>35.117804530455544</v>
-      </c>
-      <c r="AH3">
-        <v>35.279932283848041</v>
-      </c>
-      <c r="AI3">
-        <v>34.410550307244137</v>
-      </c>
-      <c r="AJ3">
-        <v>40.172379721816753</v>
-      </c>
-      <c r="AK3">
-        <v>55.501653001190903</v>
-      </c>
-      <c r="AL3">
-        <v>33.20872391538677</v>
-      </c>
-      <c r="AM3">
-        <v>42.276277904208655</v>
-      </c>
-      <c r="AN3">
-        <v>17.107705986080191</v>
-      </c>
       <c r="AO3">
-        <v>32.751824176332036</v>
+        <v>32.751824158441025</v>
       </c>
       <c r="AP3">
-        <v>24.732710409881975</v>
+        <v>24.732710378644015</v>
       </c>
       <c r="AQ3">
-        <v>24.662547114905863</v>
+        <v>24.66254717183233</v>
       </c>
       <c r="AR3">
-        <v>29.995349478032608</v>
+        <v>29.995349475985677</v>
       </c>
       <c r="AS3">
-        <v>25.552612522991808</v>
+        <v>25.552612491720083</v>
       </c>
       <c r="AT3">
-        <v>18.837497226445606</v>
+        <v>18.83749723801688</v>
       </c>
       <c r="AU3">
-        <v>32.70295032920535</v>
+        <v>32.70295029753197</v>
       </c>
       <c r="AV3">
-        <v>31.951797719829614</v>
+        <v>31.951797675324684</v>
       </c>
       <c r="AW3">
-        <v>27.888893257484256</v>
+        <v>27.888893178858154</v>
       </c>
       <c r="AX3">
-        <v>29.296103129788406</v>
+        <v>29.296103088688653</v>
       </c>
       <c r="AY3">
-        <v>65.906898593506526</v>
+        <v>65.9068985676343</v>
       </c>
     </row>
   </sheetData>
